--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -1,23 +1,279 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="血压记录表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">血压记录表!$A$1:$J$1</definedName>
+  </definedNames>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="62">
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒张压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服用降压药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服用降压药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +281,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,23 +320,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +646,1850 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3">
+        <v>138</v>
+      </c>
+      <c r="H3" s="3">
+        <v>78</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>82</v>
+      </c>
+      <c r="G4" s="3">
+        <v>128</v>
+      </c>
+      <c r="H4" s="3">
+        <v>84</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>130</v>
+      </c>
+      <c r="G5" s="3">
+        <v>73</v>
+      </c>
+      <c r="H5" s="3">
+        <v>71</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>119</v>
+      </c>
+      <c r="G7" s="3">
+        <v>71</v>
+      </c>
+      <c r="H7" s="3">
+        <v>71</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>119</v>
+      </c>
+      <c r="G8" s="3">
+        <v>67</v>
+      </c>
+      <c r="H8" s="3">
+        <v>75</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3">
+        <v>127</v>
+      </c>
+      <c r="G9" s="3">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3">
+        <v>69</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3">
+        <v>122</v>
+      </c>
+      <c r="G10" s="3">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3">
+        <v>74</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3">
+        <v>121</v>
+      </c>
+      <c r="G12" s="3">
+        <v>67</v>
+      </c>
+      <c r="H12" s="3">
+        <v>77</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3">
+        <v>116</v>
+      </c>
+      <c r="G13" s="3">
+        <v>68</v>
+      </c>
+      <c r="H13" s="3">
+        <v>75</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3">
+        <v>119</v>
+      </c>
+      <c r="G14" s="3">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3">
+        <v>79</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>125</v>
+      </c>
+      <c r="G15" s="3">
+        <v>78</v>
+      </c>
+      <c r="H15" s="3">
+        <v>73</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3">
+        <v>115</v>
+      </c>
+      <c r="G17" s="3">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3">
+        <v>85</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3">
+        <v>127</v>
+      </c>
+      <c r="G18" s="3">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3">
+        <v>73</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3">
+        <v>124</v>
+      </c>
+      <c r="G20" s="3">
+        <v>71</v>
+      </c>
+      <c r="H20" s="3">
+        <v>68</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
+        <v>114</v>
+      </c>
+      <c r="G21" s="3">
+        <v>61</v>
+      </c>
+      <c r="H21" s="3">
+        <v>79</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3">
+        <v>116</v>
+      </c>
+      <c r="G22" s="3">
+        <v>63</v>
+      </c>
+      <c r="H22" s="3">
+        <v>64</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3">
+        <v>123</v>
+      </c>
+      <c r="G23" s="3">
+        <v>68</v>
+      </c>
+      <c r="H23" s="3">
+        <v>69</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3">
+        <v>124</v>
+      </c>
+      <c r="G24" s="3">
+        <v>71</v>
+      </c>
+      <c r="H24" s="3">
+        <v>74</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="3">
+        <v>114</v>
+      </c>
+      <c r="G26" s="3">
+        <v>63</v>
+      </c>
+      <c r="H26" s="3">
+        <v>79</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3">
+        <v>120</v>
+      </c>
+      <c r="G27" s="3">
+        <v>65</v>
+      </c>
+      <c r="H27" s="3">
+        <v>65</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3">
+        <v>117</v>
+      </c>
+      <c r="G29" s="3">
+        <v>63</v>
+      </c>
+      <c r="H29" s="3">
+        <v>79</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3">
+        <v>120</v>
+      </c>
+      <c r="G30" s="3">
+        <v>69</v>
+      </c>
+      <c r="H30" s="3">
+        <v>63</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="3">
+        <v>115</v>
+      </c>
+      <c r="G32" s="3">
+        <v>63</v>
+      </c>
+      <c r="H32" s="3">
+        <v>63</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="3">
+        <v>116</v>
+      </c>
+      <c r="G33" s="3">
+        <v>65</v>
+      </c>
+      <c r="H33" s="3">
+        <v>81</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="3">
+        <v>118</v>
+      </c>
+      <c r="G34" s="3">
+        <v>66</v>
+      </c>
+      <c r="H34" s="3">
+        <v>61</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="3">
+        <v>114</v>
+      </c>
+      <c r="G36" s="3">
+        <v>58</v>
+      </c>
+      <c r="H36" s="3">
+        <v>61</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3">
+        <v>118</v>
+      </c>
+      <c r="G37" s="3">
+        <v>66</v>
+      </c>
+      <c r="H37" s="3">
+        <v>70</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="3">
+        <v>118</v>
+      </c>
+      <c r="G38" s="3">
+        <v>69</v>
+      </c>
+      <c r="H38" s="3">
+        <v>76</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="3">
+        <v>110</v>
+      </c>
+      <c r="G40" s="3">
+        <v>62</v>
+      </c>
+      <c r="H40" s="3">
+        <v>65</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="3">
+        <v>118</v>
+      </c>
+      <c r="G41" s="3">
+        <v>66</v>
+      </c>
+      <c r="H41" s="3">
+        <v>74</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3">
+        <v>109</v>
+      </c>
+      <c r="G43" s="3">
+        <v>59</v>
+      </c>
+      <c r="H43" s="3">
+        <v>64</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="3">
+        <v>113</v>
+      </c>
+      <c r="G44" s="3">
+        <v>71</v>
+      </c>
+      <c r="H44" s="3">
+        <v>69</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="3">
+        <v>139</v>
+      </c>
+      <c r="G45" s="3">
+        <v>75</v>
+      </c>
+      <c r="H45" s="3">
+        <v>83</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="3">
+        <v>133</v>
+      </c>
+      <c r="G47" s="3">
+        <v>76</v>
+      </c>
+      <c r="H47" s="3">
+        <v>77</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="3">
+        <v>126</v>
+      </c>
+      <c r="G48" s="3">
+        <v>73</v>
+      </c>
+      <c r="H48" s="3">
+        <v>80</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="3">
+        <v>129</v>
+      </c>
+      <c r="G49" s="3">
+        <v>72</v>
+      </c>
+      <c r="H49" s="3">
+        <v>73</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="3">
+        <v>123</v>
+      </c>
+      <c r="G50" s="3">
+        <v>68</v>
+      </c>
+      <c r="H50" s="3">
+        <v>70</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="3">
+        <v>115</v>
+      </c>
+      <c r="G51" s="3">
+        <v>64</v>
+      </c>
+      <c r="H51" s="3">
+        <v>66</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="3">
+        <v>117</v>
+      </c>
+      <c r="G52" s="3">
+        <v>68</v>
+      </c>
+      <c r="H52" s="3">
+        <v>62</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="3">
+        <v>115</v>
+      </c>
+      <c r="G53" s="3">
+        <v>64</v>
+      </c>
+      <c r="H53" s="3">
+        <v>64</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="3">
+        <v>116</v>
+      </c>
+      <c r="G54" s="3">
+        <v>63</v>
+      </c>
+      <c r="H54" s="3">
+        <v>64</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="3">
+        <v>119</v>
+      </c>
+      <c r="G55" s="3">
+        <v>71</v>
+      </c>
+      <c r="H55" s="3">
+        <v>77</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="3">
+        <v>123</v>
+      </c>
+      <c r="G57" s="3">
+        <v>65</v>
+      </c>
+      <c r="H57" s="3">
+        <v>75</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>118</v>
+      </c>
+      <c r="G58" s="3">
+        <v>70</v>
+      </c>
+      <c r="H58" s="3">
+        <v>76</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>118</v>
+      </c>
+      <c r="G60" s="3">
+        <v>72</v>
+      </c>
+      <c r="H60" s="3">
+        <v>76</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="3">
+        <v>130</v>
+      </c>
+      <c r="G62" s="3">
+        <v>70</v>
+      </c>
+      <c r="H62" s="3">
+        <v>79</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="139">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,314 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2459,6 +2767,2492 @@
         <v>22</v>
       </c>
       <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="3">
+        <v>120</v>
+      </c>
+      <c r="G64" s="3">
+        <v>72</v>
+      </c>
+      <c r="H64" s="3">
+        <v>69</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="3">
+        <v>117</v>
+      </c>
+      <c r="G66" s="3">
+        <v>67</v>
+      </c>
+      <c r="H66" s="3">
+        <v>75</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="3">
+        <v>111</v>
+      </c>
+      <c r="G67" s="3">
+        <v>61</v>
+      </c>
+      <c r="H67" s="3">
+        <v>68</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="3">
+        <v>108</v>
+      </c>
+      <c r="G68" s="3">
+        <v>53</v>
+      </c>
+      <c r="H68" s="3">
+        <v>69</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="3">
+        <v>108</v>
+      </c>
+      <c r="G69" s="3">
+        <v>56</v>
+      </c>
+      <c r="H69" s="3">
+        <v>67</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="3">
+        <v>119</v>
+      </c>
+      <c r="G70" s="3">
+        <v>71</v>
+      </c>
+      <c r="H70" s="3">
+        <v>68</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="3">
+        <v>127</v>
+      </c>
+      <c r="G72" s="3">
+        <v>73</v>
+      </c>
+      <c r="H72" s="3">
+        <v>73</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="3">
+        <v>120</v>
+      </c>
+      <c r="G73" s="3">
+        <v>71</v>
+      </c>
+      <c r="H73" s="3">
+        <v>73</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="3">
+        <v>118</v>
+      </c>
+      <c r="G74" s="3">
+        <v>64</v>
+      </c>
+      <c r="H74" s="3">
+        <v>73</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="3">
+        <v>115</v>
+      </c>
+      <c r="G75" s="3">
+        <v>63</v>
+      </c>
+      <c r="H75" s="3">
+        <v>67</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="3">
+        <v>125</v>
+      </c>
+      <c r="G76" s="3">
+        <v>73</v>
+      </c>
+      <c r="H76" s="3">
+        <v>70</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="3">
+        <v>117</v>
+      </c>
+      <c r="G78" s="3">
+        <v>69</v>
+      </c>
+      <c r="H78" s="3">
+        <v>74</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" s="3">
+        <v>115</v>
+      </c>
+      <c r="G80" s="3">
+        <v>63</v>
+      </c>
+      <c r="H80" s="3">
+        <v>73</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="3">
+        <v>115</v>
+      </c>
+      <c r="G81" s="3">
+        <v>65</v>
+      </c>
+      <c r="H81" s="3">
+        <v>66</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="3">
+        <v>110</v>
+      </c>
+      <c r="G83" s="3">
+        <v>65</v>
+      </c>
+      <c r="H83" s="3">
+        <v>65</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="3">
+        <v>116</v>
+      </c>
+      <c r="G84" s="3">
+        <v>68</v>
+      </c>
+      <c r="H84" s="3">
+        <v>75</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="3">
+        <v>117</v>
+      </c>
+      <c r="G85" s="3">
+        <v>69</v>
+      </c>
+      <c r="H85" s="3">
+        <v>78</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="3">
+        <v>118</v>
+      </c>
+      <c r="G87" s="3">
+        <v>71</v>
+      </c>
+      <c r="H87" s="3">
+        <v>66</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" s="3">
+        <v>130</v>
+      </c>
+      <c r="G89" s="3">
+        <v>77</v>
+      </c>
+      <c r="H89" s="3">
+        <v>71</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" s="3">
+        <v>123</v>
+      </c>
+      <c r="G91" s="3">
+        <v>64</v>
+      </c>
+      <c r="H91" s="3">
+        <v>73</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" s="3">
+        <v>123</v>
+      </c>
+      <c r="G92" s="3">
+        <v>64</v>
+      </c>
+      <c r="H92" s="3">
+        <v>73</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>124</v>
+      </c>
+      <c r="G94" s="3">
+        <v>68</v>
+      </c>
+      <c r="H94" s="3">
+        <v>67</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F95" s="3">
+        <v>115</v>
+      </c>
+      <c r="G95" s="3">
+        <v>64</v>
+      </c>
+      <c r="H95" s="3">
+        <v>74</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" s="3">
+        <v>120</v>
+      </c>
+      <c r="G96" s="3">
+        <v>70</v>
+      </c>
+      <c r="H96" s="3">
+        <v>64</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" s="3">
+        <v>127</v>
+      </c>
+      <c r="G97" s="3">
+        <v>74</v>
+      </c>
+      <c r="H97" s="3">
+        <v>68</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="3">
+        <v>127</v>
+      </c>
+      <c r="G99" s="3">
+        <v>70</v>
+      </c>
+      <c r="H99" s="3">
+        <v>75</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" s="3">
+        <v>109</v>
+      </c>
+      <c r="G101" s="3">
+        <v>57</v>
+      </c>
+      <c r="H101" s="3">
+        <v>69</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F102" s="3">
+        <v>115</v>
+      </c>
+      <c r="G102" s="3">
+        <v>68</v>
+      </c>
+      <c r="H102" s="3">
+        <v>67</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F103" s="3">
+        <v>118</v>
+      </c>
+      <c r="G103" s="3">
+        <v>67</v>
+      </c>
+      <c r="H103" s="3">
+        <v>68</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="3">
+        <v>119</v>
+      </c>
+      <c r="G104" s="3">
+        <v>68</v>
+      </c>
+      <c r="H104" s="3">
+        <v>66</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" s="3">
+        <v>105</v>
+      </c>
+      <c r="G105" s="3">
+        <v>66</v>
+      </c>
+      <c r="H105" s="3">
+        <v>69</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107" s="3">
+        <v>116</v>
+      </c>
+      <c r="G107" s="3">
+        <v>68</v>
+      </c>
+      <c r="H107" s="3">
+        <v>64</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F108" s="3">
+        <v>118</v>
+      </c>
+      <c r="G108" s="3">
+        <v>69</v>
+      </c>
+      <c r="H108" s="3">
+        <v>69</v>
+      </c>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F111" s="3">
+        <v>120</v>
+      </c>
+      <c r="G111" s="3">
+        <v>66</v>
+      </c>
+      <c r="H111" s="3">
+        <v>65</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" s="3">
+        <v>119</v>
+      </c>
+      <c r="G112" s="3">
+        <v>59</v>
+      </c>
+      <c r="H112" s="3">
+        <v>69</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" s="3">
+        <v>122</v>
+      </c>
+      <c r="G113" s="3">
+        <v>68</v>
+      </c>
+      <c r="H113" s="3">
+        <v>63</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="3">
+        <v>119</v>
+      </c>
+      <c r="G115" s="3">
+        <v>62</v>
+      </c>
+      <c r="H115" s="3">
+        <v>73</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="3">
+        <v>110</v>
+      </c>
+      <c r="G116" s="3">
+        <v>60</v>
+      </c>
+      <c r="H116" s="3">
+        <v>66</v>
+      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F117" s="3">
+        <v>116</v>
+      </c>
+      <c r="G117" s="3">
+        <v>62</v>
+      </c>
+      <c r="H117" s="3">
+        <v>76</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F119" s="3">
+        <v>127</v>
+      </c>
+      <c r="G119" s="3">
+        <v>65</v>
+      </c>
+      <c r="H119" s="3">
+        <v>72</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F120" s="3">
+        <v>120</v>
+      </c>
+      <c r="G120" s="3">
+        <v>63</v>
+      </c>
+      <c r="H120" s="3">
+        <v>78</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F122" s="3">
+        <v>114</v>
+      </c>
+      <c r="G122" s="3">
+        <v>59</v>
+      </c>
+      <c r="H122" s="3">
+        <v>76</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" s="3">
+        <v>126</v>
+      </c>
+      <c r="G123" s="3">
+        <v>61</v>
+      </c>
+      <c r="H123" s="3">
+        <v>78</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F124" s="3">
+        <v>126</v>
+      </c>
+      <c r="G124" s="3">
+        <v>74</v>
+      </c>
+      <c r="H124" s="3">
+        <v>89</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F126" s="3">
+        <v>120</v>
+      </c>
+      <c r="G126" s="3">
+        <v>65</v>
+      </c>
+      <c r="H126" s="3">
+        <v>76</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F127" s="3">
+        <v>112</v>
+      </c>
+      <c r="G127" s="3">
+        <v>66</v>
+      </c>
+      <c r="H127" s="3">
+        <v>81</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F128" s="3">
+        <v>125</v>
+      </c>
+      <c r="G128" s="3">
+        <v>73</v>
+      </c>
+      <c r="H128" s="3">
+        <v>89</v>
+      </c>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F130" s="3">
+        <v>122</v>
+      </c>
+      <c r="G130" s="3">
+        <v>76</v>
+      </c>
+      <c r="H130" s="3">
+        <v>120</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F131" s="3">
+        <v>120</v>
+      </c>
+      <c r="G131" s="3">
+        <v>78</v>
+      </c>
+      <c r="H131" s="3">
+        <v>115</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F132" s="3">
+        <v>114</v>
+      </c>
+      <c r="G132" s="3">
+        <v>70</v>
+      </c>
+      <c r="H132" s="3">
+        <v>81</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F134" s="3">
+        <v>112</v>
+      </c>
+      <c r="G134" s="3">
+        <v>67</v>
+      </c>
+      <c r="H134" s="3">
+        <v>83</v>
+      </c>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F135" s="3">
+        <v>106</v>
+      </c>
+      <c r="G135" s="3">
+        <v>60</v>
+      </c>
+      <c r="H135" s="3">
+        <v>82</v>
+      </c>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F137" s="3">
+        <v>115</v>
+      </c>
+      <c r="G137" s="3">
+        <v>69</v>
+      </c>
+      <c r="H137" s="3">
+        <v>71</v>
+      </c>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" s="3">
+        <v>107</v>
+      </c>
+      <c r="G138" s="3">
+        <v>56</v>
+      </c>
+      <c r="H138" s="3">
+        <v>70</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F140" s="3">
+        <v>115</v>
+      </c>
+      <c r="G140" s="3">
+        <v>67</v>
+      </c>
+      <c r="H140" s="3">
+        <v>73</v>
+      </c>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F142" s="3">
+        <v>117</v>
+      </c>
+      <c r="G142" s="3">
+        <v>66</v>
+      </c>
+      <c r="H142" s="3">
+        <v>74</v>
+      </c>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F143" s="3">
+        <v>113</v>
+      </c>
+      <c r="G143" s="3">
+        <v>61</v>
+      </c>
+      <c r="H143" s="3">
+        <v>65</v>
+      </c>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F144" s="3">
+        <v>116</v>
+      </c>
+      <c r="G144" s="3">
+        <v>66</v>
+      </c>
+      <c r="H144" s="3">
+        <v>66</v>
+      </c>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F146" s="3">
+        <v>111</v>
+      </c>
+      <c r="G146" s="3">
+        <v>63</v>
+      </c>
+      <c r="H146" s="3">
+        <v>71</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F147" s="3">
+        <v>114</v>
+      </c>
+      <c r="G147" s="3">
+        <v>65</v>
+      </c>
+      <c r="H147" s="3">
+        <v>70</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F148" s="3">
+        <v>119</v>
+      </c>
+      <c r="G148" s="3">
+        <v>56</v>
+      </c>
+      <c r="H148" s="3">
+        <v>58</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F149" s="3">
+        <v>0</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F150" s="3">
+        <v>116</v>
+      </c>
+      <c r="G150" s="3">
+        <v>69</v>
+      </c>
+      <c r="H150" s="3">
+        <v>74</v>
+      </c>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="152">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,58 @@
   </si>
   <si>
     <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5253,6 +5305,230 @@
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F152" s="3">
+        <v>115</v>
+      </c>
+      <c r="G152" s="3">
+        <v>67</v>
+      </c>
+      <c r="H152" s="3">
+        <v>68</v>
+      </c>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F153" s="3">
+        <v>0</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F154" s="3">
+        <v>114</v>
+      </c>
+      <c r="G154" s="3">
+        <v>70</v>
+      </c>
+      <c r="H154" s="3">
+        <v>69</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F155" s="3">
+        <v>106</v>
+      </c>
+      <c r="G155" s="3">
+        <v>60</v>
+      </c>
+      <c r="H155" s="3">
+        <v>56</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="161">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,6 +626,42 @@
   </si>
   <si>
     <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,13 +735,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,7 +1047,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5457,13 +5494,27 @@
       <c r="B156" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
+      <c r="C156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F156" s="3">
+        <v>0</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
@@ -5473,12 +5524,24 @@
       <c r="B157" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
+      <c r="C157" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" s="6">
+        <v>114</v>
+      </c>
+      <c r="G157" s="6">
+        <v>64</v>
+      </c>
+      <c r="H157" s="6">
+        <v>64</v>
+      </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
     </row>
@@ -5489,12 +5552,24 @@
       <c r="B158" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
+      <c r="C158" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F158" s="3">
+        <v>112</v>
+      </c>
+      <c r="G158" s="3">
+        <v>62</v>
+      </c>
+      <c r="H158" s="3">
+        <v>70</v>
+      </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
     </row>

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">血压记录表!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">血压记录表!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="167">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,30 @@
   </si>
   <si>
     <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉压</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +771,48 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1044,20 +1109,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1074,22 +1139,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
@@ -1117,9 +1185,13 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J2" s="3">
+        <f>F2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
@@ -1136,18 +1208,22 @@
         <v>8</v>
       </c>
       <c r="F3" s="3">
+        <v>138</v>
+      </c>
+      <c r="G3" s="3">
         <v>75</v>
-      </c>
-      <c r="G3" s="3">
-        <v>138</v>
       </c>
       <c r="H3" s="3">
         <v>78</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J3" s="3">
+        <f>F3-G3</f>
+        <v>63</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2018</v>
       </c>
@@ -1164,18 +1240,22 @@
         <v>9</v>
       </c>
       <c r="F4" s="3">
+        <v>128</v>
+      </c>
+      <c r="G4" s="3">
         <v>82</v>
-      </c>
-      <c r="G4" s="3">
-        <v>128</v>
       </c>
       <c r="H4" s="3">
         <v>84</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="3">
+        <f>F4-G4</f>
+        <v>46</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
@@ -1201,9 +1281,13 @@
         <v>71</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="3">
+        <f>F5-G5</f>
+        <v>57</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2018</v>
       </c>
@@ -1231,9 +1315,13 @@
       <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="3">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2018</v>
       </c>
@@ -1259,9 +1347,13 @@
         <v>71</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J7" s="3">
+        <f>F7-G7</f>
+        <v>48</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2018</v>
       </c>
@@ -1287,9 +1379,13 @@
         <v>75</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J8" s="3">
+        <f>F8-G8</f>
+        <v>52</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>2018</v>
       </c>
@@ -1315,9 +1411,13 @@
         <v>69</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J9" s="3">
+        <f>F9-G9</f>
+        <v>54</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>2018</v>
       </c>
@@ -1343,9 +1443,13 @@
         <v>74</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J10" s="3">
+        <f>F10-G10</f>
+        <v>56</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>2018</v>
       </c>
@@ -1373,9 +1477,13 @@
       <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J11" s="3">
+        <f>F11-G11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>2018</v>
       </c>
@@ -1401,9 +1509,13 @@
         <v>77</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J12" s="3">
+        <f>F12-G12</f>
+        <v>54</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>2018</v>
       </c>
@@ -1429,9 +1541,13 @@
         <v>75</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J13" s="3">
+        <f>F13-G13</f>
+        <v>48</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>2018</v>
       </c>
@@ -1457,9 +1573,13 @@
         <v>79</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J14" s="3">
+        <f>F14-G14</f>
+        <v>52</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>2018</v>
       </c>
@@ -1485,9 +1605,13 @@
         <v>73</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J15" s="3">
+        <f>F15-G15</f>
+        <v>47</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>2018</v>
       </c>
@@ -1515,9 +1639,13 @@
       <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16" s="3">
+        <f>F16-G16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>2018</v>
       </c>
@@ -1543,9 +1671,13 @@
         <v>85</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="3">
+        <f>F17-G17</f>
+        <v>52</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>2018</v>
       </c>
@@ -1571,9 +1703,13 @@
         <v>73</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J18" s="3">
+        <f>F18-G18</f>
+        <v>52</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>2018</v>
       </c>
@@ -1601,9 +1737,13 @@
       <c r="I19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="3">
+        <f>F19-G19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>2018</v>
       </c>
@@ -1629,9 +1769,13 @@
         <v>68</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J20" s="3">
+        <f>F20-G20</f>
+        <v>53</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>2018</v>
       </c>
@@ -1657,9 +1801,13 @@
         <v>79</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J21" s="3">
+        <f>F21-G21</f>
+        <v>53</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>2018</v>
       </c>
@@ -1685,9 +1833,13 @@
         <v>64</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="3">
+        <f>F22-G22</f>
+        <v>53</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>2018</v>
       </c>
@@ -1713,9 +1865,13 @@
         <v>69</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="3">
+        <f>F23-G23</f>
+        <v>55</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>2018</v>
       </c>
@@ -1741,9 +1897,13 @@
         <v>74</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J24" s="3">
+        <f>F24-G24</f>
+        <v>53</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>2018</v>
       </c>
@@ -1771,9 +1931,13 @@
       <c r="I25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J25" s="3">
+        <f>F25-G25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>2018</v>
       </c>
@@ -1799,9 +1963,13 @@
         <v>79</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J26" s="3">
+        <f>F26-G26</f>
+        <v>51</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>2018</v>
       </c>
@@ -1827,9 +1995,13 @@
         <v>65</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J27" s="3">
+        <f>F27-G27</f>
+        <v>55</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>2018</v>
       </c>
@@ -1857,9 +2029,13 @@
       <c r="I28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J28" s="3">
+        <f>F28-G28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>2018</v>
       </c>
@@ -1885,9 +2061,13 @@
         <v>79</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J29" s="3">
+        <f>F29-G29</f>
+        <v>54</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>2018</v>
       </c>
@@ -1913,9 +2093,13 @@
         <v>63</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J30" s="3">
+        <f>F30-G30</f>
+        <v>51</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>2018</v>
       </c>
@@ -1943,9 +2127,13 @@
       <c r="I31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J31" s="3">
+        <f>F31-G31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>2018</v>
       </c>
@@ -1971,9 +2159,13 @@
         <v>63</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J32" s="3">
+        <f>F32-G32</f>
+        <v>52</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>2018</v>
       </c>
@@ -1999,9 +2191,13 @@
         <v>81</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J33" s="3">
+        <f>F33-G33</f>
+        <v>51</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>2018</v>
       </c>
@@ -2027,9 +2223,13 @@
         <v>61</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="3">
+        <f>F34-G34</f>
+        <v>52</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>2018</v>
       </c>
@@ -2057,9 +2257,13 @@
       <c r="I35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="3">
+        <f>F35-G35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>2018</v>
       </c>
@@ -2085,9 +2289,13 @@
         <v>61</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="3">
+        <f>F36-G36</f>
+        <v>56</v>
+      </c>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>2018</v>
       </c>
@@ -2113,9 +2321,13 @@
         <v>70</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="3">
+        <f>F37-G37</f>
+        <v>52</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>2018</v>
       </c>
@@ -2141,9 +2353,13 @@
         <v>76</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J38" s="3">
+        <f>F38-G38</f>
+        <v>49</v>
+      </c>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>2018</v>
       </c>
@@ -2171,9 +2387,13 @@
       <c r="I39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J39" s="3">
+        <f>F39-G39</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>2018</v>
       </c>
@@ -2199,9 +2419,13 @@
         <v>65</v>
       </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J40" s="3">
+        <f>F40-G40</f>
+        <v>48</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>2018</v>
       </c>
@@ -2227,9 +2451,13 @@
         <v>74</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="3">
+        <f>F41-G41</f>
+        <v>52</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>2018</v>
       </c>
@@ -2257,9 +2485,13 @@
       <c r="I42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J42" s="3">
+        <f>F42-G42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>2018</v>
       </c>
@@ -2285,9 +2517,13 @@
         <v>64</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J43" s="3">
+        <f>F43-G43</f>
+        <v>50</v>
+      </c>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>2018</v>
       </c>
@@ -2313,9 +2549,13 @@
         <v>69</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="3">
+        <f>F44-G44</f>
+        <v>42</v>
+      </c>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>2018</v>
       </c>
@@ -2341,9 +2581,13 @@
         <v>83</v>
       </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J45" s="3">
+        <f>F45-G45</f>
+        <v>64</v>
+      </c>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>2018</v>
       </c>
@@ -2371,9 +2615,13 @@
       <c r="I46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J46" s="3">
+        <f>F46-G46</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>2018</v>
       </c>
@@ -2399,9 +2647,13 @@
         <v>77</v>
       </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J47" s="3">
+        <f>F47-G47</f>
+        <v>57</v>
+      </c>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>2018</v>
       </c>
@@ -2427,9 +2679,13 @@
         <v>80</v>
       </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J48" s="3">
+        <f>F48-G48</f>
+        <v>53</v>
+      </c>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>2018</v>
       </c>
@@ -2455,9 +2711,13 @@
         <v>73</v>
       </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J49" s="3">
+        <f>F49-G49</f>
+        <v>57</v>
+      </c>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>2018</v>
       </c>
@@ -2483,9 +2743,13 @@
         <v>70</v>
       </c>
       <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J50" s="3">
+        <f>F50-G50</f>
+        <v>55</v>
+      </c>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>2018</v>
       </c>
@@ -2511,9 +2775,13 @@
         <v>66</v>
       </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J51" s="3">
+        <f>F51-G51</f>
+        <v>51</v>
+      </c>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>2018</v>
       </c>
@@ -2539,9 +2807,13 @@
         <v>62</v>
       </c>
       <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J52" s="3">
+        <f>F52-G52</f>
+        <v>49</v>
+      </c>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>2018</v>
       </c>
@@ -2567,9 +2839,13 @@
         <v>64</v>
       </c>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J53" s="3">
+        <f>F53-G53</f>
+        <v>51</v>
+      </c>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>2018</v>
       </c>
@@ -2595,9 +2871,13 @@
         <v>64</v>
       </c>
       <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J54" s="3">
+        <f>F54-G54</f>
+        <v>53</v>
+      </c>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>2018</v>
       </c>
@@ -2623,9 +2903,13 @@
         <v>77</v>
       </c>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J55" s="3">
+        <f>F55-G55</f>
+        <v>48</v>
+      </c>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>2018</v>
       </c>
@@ -2653,9 +2937,13 @@
       <c r="I56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J56" s="3">
+        <f>F56-G56</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>2018</v>
       </c>
@@ -2681,9 +2969,13 @@
         <v>75</v>
       </c>
       <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J57" s="3">
+        <f>F57-G57</f>
+        <v>58</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>2018</v>
       </c>
@@ -2709,9 +3001,13 @@
         <v>76</v>
       </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J58" s="3">
+        <f>F58-G58</f>
+        <v>48</v>
+      </c>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>2018</v>
       </c>
@@ -2739,9 +3035,13 @@
       <c r="I59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J59" s="3">
+        <f>F59-G59</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>2018</v>
       </c>
@@ -2767,9 +3067,13 @@
         <v>76</v>
       </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J60" s="3">
+        <f>F60-G60</f>
+        <v>46</v>
+      </c>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>2018</v>
       </c>
@@ -2797,9 +3101,13 @@
       <c r="I61" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J61" s="3">
+        <f>F61-G61</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>2018</v>
       </c>
@@ -2825,9 +3133,13 @@
         <v>79</v>
       </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J62" s="3">
+        <f>F62-G62</f>
+        <v>60</v>
+      </c>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>2018</v>
       </c>
@@ -2855,9 +3167,13 @@
       <c r="I63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J63" s="3">
+        <f>F63-G63</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>2018</v>
       </c>
@@ -2883,9 +3199,13 @@
         <v>69</v>
       </c>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J64" s="3">
+        <f>F64-G64</f>
+        <v>48</v>
+      </c>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>2018</v>
       </c>
@@ -2913,9 +3233,13 @@
       <c r="I65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J65" s="3">
+        <f>F65-G65</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>2018</v>
       </c>
@@ -2941,9 +3265,13 @@
         <v>75</v>
       </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J66" s="3">
+        <f>F66-G66</f>
+        <v>50</v>
+      </c>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>2018</v>
       </c>
@@ -2969,9 +3297,13 @@
         <v>68</v>
       </c>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J67" s="3">
+        <f>F67-G67</f>
+        <v>50</v>
+      </c>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>2018</v>
       </c>
@@ -2997,9 +3329,13 @@
         <v>69</v>
       </c>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J68" s="3">
+        <f>F68-G68</f>
+        <v>55</v>
+      </c>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>2018</v>
       </c>
@@ -3025,9 +3361,13 @@
         <v>67</v>
       </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J69" s="3">
+        <f>F69-G69</f>
+        <v>52</v>
+      </c>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>2018</v>
       </c>
@@ -3053,9 +3393,13 @@
         <v>68</v>
       </c>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J70" s="3">
+        <f>F70-G70</f>
+        <v>48</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>2018</v>
       </c>
@@ -3083,9 +3427,13 @@
       <c r="I71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J71" s="3">
+        <f>F71-G71</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>2018</v>
       </c>
@@ -3111,9 +3459,13 @@
         <v>73</v>
       </c>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J72" s="3">
+        <f>F72-G72</f>
+        <v>54</v>
+      </c>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>2018</v>
       </c>
@@ -3139,9 +3491,13 @@
         <v>73</v>
       </c>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J73" s="3">
+        <f>F73-G73</f>
+        <v>49</v>
+      </c>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>2018</v>
       </c>
@@ -3167,9 +3523,13 @@
         <v>73</v>
       </c>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J74" s="3">
+        <f>F74-G74</f>
+        <v>54</v>
+      </c>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>2018</v>
       </c>
@@ -3195,9 +3555,13 @@
         <v>67</v>
       </c>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J75" s="3">
+        <f>F75-G75</f>
+        <v>52</v>
+      </c>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
@@ -3223,9 +3587,13 @@
         <v>70</v>
       </c>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J76" s="3">
+        <f>F76-G76</f>
+        <v>52</v>
+      </c>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
@@ -3253,9 +3621,13 @@
       <c r="I77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J77" s="3">
+        <f>F77-G77</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
@@ -3281,9 +3653,13 @@
         <v>74</v>
       </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J78" s="3">
+        <f>F78-G78</f>
+        <v>48</v>
+      </c>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -3311,9 +3687,13 @@
       <c r="I79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J79" s="3">
+        <f>F79-G79</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
@@ -3339,9 +3719,13 @@
         <v>73</v>
       </c>
       <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J80" s="3">
+        <f>F80-G80</f>
+        <v>52</v>
+      </c>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -3367,9 +3751,13 @@
         <v>66</v>
       </c>
       <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J81" s="3">
+        <f>F81-G81</f>
+        <v>50</v>
+      </c>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3397,9 +3785,13 @@
       <c r="I82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J82" s="3">
+        <f>F82-G82</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -3425,9 +3817,13 @@
         <v>65</v>
       </c>
       <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J83" s="3">
+        <f>F83-G83</f>
+        <v>45</v>
+      </c>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -3453,9 +3849,13 @@
         <v>75</v>
       </c>
       <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J84" s="3">
+        <f>F84-G84</f>
+        <v>48</v>
+      </c>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -3481,9 +3881,13 @@
         <v>78</v>
       </c>
       <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J85" s="3">
+        <f>F85-G85</f>
+        <v>48</v>
+      </c>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
@@ -3511,9 +3915,13 @@
       <c r="I86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J86" s="3">
+        <f>F86-G86</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
@@ -3539,9 +3947,13 @@
         <v>66</v>
       </c>
       <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J87" s="3">
+        <f>F87-G87</f>
+        <v>47</v>
+      </c>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
@@ -3569,9 +3981,13 @@
       <c r="I88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J88" s="3">
+        <f>F88-G88</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>81</v>
       </c>
@@ -3597,9 +4013,13 @@
         <v>71</v>
       </c>
       <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J89" s="3">
+        <f>F89-G89</f>
+        <v>53</v>
+      </c>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>81</v>
       </c>
@@ -3627,9 +4047,13 @@
       <c r="I90" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J90" s="3">
+        <f>F90-G90</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>81</v>
       </c>
@@ -3655,9 +4079,13 @@
         <v>73</v>
       </c>
       <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J91" s="3">
+        <f>F91-G91</f>
+        <v>59</v>
+      </c>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>81</v>
       </c>
@@ -3683,9 +4111,13 @@
         <v>73</v>
       </c>
       <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J92" s="3">
+        <f>F92-G92</f>
+        <v>59</v>
+      </c>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>81</v>
       </c>
@@ -3713,9 +4145,13 @@
       <c r="I93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J93" s="3">
+        <f>F93-G93</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>81</v>
       </c>
@@ -3741,9 +4177,13 @@
         <v>67</v>
       </c>
       <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J94" s="3">
+        <f>F94-G94</f>
+        <v>56</v>
+      </c>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>81</v>
       </c>
@@ -3769,9 +4209,13 @@
         <v>74</v>
       </c>
       <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J95" s="3">
+        <f>F95-G95</f>
+        <v>51</v>
+      </c>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>81</v>
       </c>
@@ -3797,9 +4241,13 @@
         <v>64</v>
       </c>
       <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J96" s="3">
+        <f>F96-G96</f>
+        <v>50</v>
+      </c>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>81</v>
       </c>
@@ -3825,9 +4273,13 @@
         <v>68</v>
       </c>
       <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J97" s="3">
+        <f>F97-G97</f>
+        <v>53</v>
+      </c>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>81</v>
       </c>
@@ -3855,9 +4307,13 @@
       <c r="I98" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J98" s="3">
+        <f>F98-G98</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>81</v>
       </c>
@@ -3883,9 +4339,13 @@
         <v>75</v>
       </c>
       <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J99" s="3">
+        <f>F99-G99</f>
+        <v>57</v>
+      </c>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>81</v>
       </c>
@@ -3913,9 +4373,13 @@
       <c r="I100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J100" s="3">
+        <f>F100-G100</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>81</v>
       </c>
@@ -3941,9 +4405,13 @@
         <v>69</v>
       </c>
       <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J101" s="3">
+        <f>F101-G101</f>
+        <v>52</v>
+      </c>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>81</v>
       </c>
@@ -3969,9 +4437,13 @@
         <v>67</v>
       </c>
       <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J102" s="3">
+        <f>F102-G102</f>
+        <v>47</v>
+      </c>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>81</v>
       </c>
@@ -3997,9 +4469,13 @@
         <v>68</v>
       </c>
       <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J103" s="3">
+        <f>F103-G103</f>
+        <v>51</v>
+      </c>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>108</v>
       </c>
@@ -4025,9 +4501,13 @@
         <v>66</v>
       </c>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J104" s="3">
+        <f>F104-G104</f>
+        <v>51</v>
+      </c>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>108</v>
       </c>
@@ -4053,9 +4533,13 @@
         <v>69</v>
       </c>
       <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J105" s="3">
+        <f>F105-G105</f>
+        <v>39</v>
+      </c>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
@@ -4083,9 +4567,13 @@
       <c r="I106" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J106" s="3">
+        <f>F106-G106</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
@@ -4111,9 +4599,13 @@
         <v>64</v>
       </c>
       <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J107" s="3">
+        <f>F107-G107</f>
+        <v>48</v>
+      </c>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>81</v>
       </c>
@@ -4139,9 +4631,13 @@
         <v>69</v>
       </c>
       <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J108" s="3">
+        <f>F108-G108</f>
+        <v>49</v>
+      </c>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>81</v>
       </c>
@@ -4169,9 +4665,13 @@
       <c r="I109" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J109" s="3">
+        <f>F109-G109</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>81</v>
       </c>
@@ -4199,9 +4699,13 @@
       <c r="I110" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J110" s="3">
+        <f>F110-G110</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>81</v>
       </c>
@@ -4227,9 +4731,13 @@
         <v>65</v>
       </c>
       <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J111" s="3">
+        <f>F111-G111</f>
+        <v>54</v>
+      </c>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>81</v>
       </c>
@@ -4255,9 +4763,13 @@
         <v>69</v>
       </c>
       <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J112" s="3">
+        <f>F112-G112</f>
+        <v>60</v>
+      </c>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>81</v>
       </c>
@@ -4283,9 +4795,13 @@
         <v>63</v>
       </c>
       <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J113" s="3">
+        <f>F113-G113</f>
+        <v>54</v>
+      </c>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>81</v>
       </c>
@@ -4313,9 +4829,13 @@
       <c r="I114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J114" s="3"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J114" s="3">
+        <f>F114-G114</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>81</v>
       </c>
@@ -4341,9 +4861,13 @@
         <v>73</v>
       </c>
       <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J115" s="3">
+        <f>F115-G115</f>
+        <v>57</v>
+      </c>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>81</v>
       </c>
@@ -4369,9 +4893,13 @@
         <v>66</v>
       </c>
       <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J116" s="3">
+        <f>F116-G116</f>
+        <v>50</v>
+      </c>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>81</v>
       </c>
@@ -4397,9 +4925,13 @@
         <v>76</v>
       </c>
       <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J117" s="3">
+        <f>F117-G117</f>
+        <v>54</v>
+      </c>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>81</v>
       </c>
@@ -4427,9 +4959,13 @@
       <c r="I118" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J118" s="3">
+        <f>F118-G118</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>81</v>
       </c>
@@ -4455,9 +4991,13 @@
         <v>72</v>
       </c>
       <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J119" s="3">
+        <f>F119-G119</f>
+        <v>62</v>
+      </c>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>81</v>
       </c>
@@ -4483,9 +5023,13 @@
         <v>78</v>
       </c>
       <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J120" s="3">
+        <f>F120-G120</f>
+        <v>57</v>
+      </c>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>81</v>
       </c>
@@ -4513,9 +5057,13 @@
       <c r="I121" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J121" s="3"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J121" s="3">
+        <f>F121-G121</f>
+        <v>0</v>
+      </c>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>81</v>
       </c>
@@ -4541,9 +5089,13 @@
         <v>76</v>
       </c>
       <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J122" s="3">
+        <f>F122-G122</f>
+        <v>55</v>
+      </c>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>81</v>
       </c>
@@ -4569,9 +5121,13 @@
         <v>78</v>
       </c>
       <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J123" s="3">
+        <f>F123-G123</f>
+        <v>65</v>
+      </c>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>81</v>
       </c>
@@ -4597,9 +5153,13 @@
         <v>89</v>
       </c>
       <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J124" s="3">
+        <f>F124-G124</f>
+        <v>52</v>
+      </c>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>81</v>
       </c>
@@ -4627,9 +5187,13 @@
       <c r="I125" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J125" s="3">
+        <f>F125-G125</f>
+        <v>0</v>
+      </c>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>81</v>
       </c>
@@ -4655,9 +5219,13 @@
         <v>76</v>
       </c>
       <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J126" s="3">
+        <f>F126-G126</f>
+        <v>55</v>
+      </c>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>81</v>
       </c>
@@ -4683,9 +5251,13 @@
         <v>81</v>
       </c>
       <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J127" s="3">
+        <f>F127-G127</f>
+        <v>46</v>
+      </c>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>81</v>
       </c>
@@ -4711,9 +5283,13 @@
         <v>89</v>
       </c>
       <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J128" s="3">
+        <f>F128-G128</f>
+        <v>52</v>
+      </c>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>81</v>
       </c>
@@ -4741,9 +5317,13 @@
       <c r="I129" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J129" s="3"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J129" s="3">
+        <f>F129-G129</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>81</v>
       </c>
@@ -4769,9 +5349,13 @@
         <v>120</v>
       </c>
       <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J130" s="3">
+        <f>F130-G130</f>
+        <v>46</v>
+      </c>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>81</v>
       </c>
@@ -4797,9 +5381,13 @@
         <v>115</v>
       </c>
       <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J131" s="3">
+        <f>F131-G131</f>
+        <v>42</v>
+      </c>
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>81</v>
       </c>
@@ -4825,9 +5413,13 @@
         <v>81</v>
       </c>
       <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J132" s="3">
+        <f>F132-G132</f>
+        <v>44</v>
+      </c>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>81</v>
       </c>
@@ -4855,9 +5447,13 @@
       <c r="I133" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J133" s="3"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J133" s="3">
+        <f>F133-G133</f>
+        <v>0</v>
+      </c>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>81</v>
       </c>
@@ -4883,9 +5479,13 @@
         <v>83</v>
       </c>
       <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J134" s="3">
+        <f>F134-G134</f>
+        <v>45</v>
+      </c>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>81</v>
       </c>
@@ -4911,9 +5511,13 @@
         <v>82</v>
       </c>
       <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J135" s="3">
+        <f>F135-G135</f>
+        <v>46</v>
+      </c>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>81</v>
       </c>
@@ -4941,9 +5545,13 @@
       <c r="I136" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J136" s="3"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J136" s="3">
+        <f>F136-G136</f>
+        <v>0</v>
+      </c>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>81</v>
       </c>
@@ -4969,9 +5577,13 @@
         <v>71</v>
       </c>
       <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J137" s="3">
+        <f>F137-G137</f>
+        <v>46</v>
+      </c>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>81</v>
       </c>
@@ -4997,9 +5609,13 @@
         <v>70</v>
       </c>
       <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J138" s="3">
+        <f>F138-G138</f>
+        <v>51</v>
+      </c>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>81</v>
       </c>
@@ -5027,9 +5643,13 @@
       <c r="I139" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J139" s="3"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J139" s="3">
+        <f>F139-G139</f>
+        <v>0</v>
+      </c>
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>81</v>
       </c>
@@ -5055,9 +5675,13 @@
         <v>73</v>
       </c>
       <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J140" s="3">
+        <f>F140-G140</f>
+        <v>48</v>
+      </c>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>81</v>
       </c>
@@ -5085,9 +5709,13 @@
       <c r="I141" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J141" s="3"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J141" s="3">
+        <f>F141-G141</f>
+        <v>0</v>
+      </c>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>81</v>
       </c>
@@ -5113,9 +5741,13 @@
         <v>74</v>
       </c>
       <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J142" s="3">
+        <f>F142-G142</f>
+        <v>51</v>
+      </c>
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>81</v>
       </c>
@@ -5141,9 +5773,13 @@
         <v>65</v>
       </c>
       <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J143" s="3">
+        <f>F143-G143</f>
+        <v>52</v>
+      </c>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>81</v>
       </c>
@@ -5169,9 +5805,13 @@
         <v>66</v>
       </c>
       <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J144" s="3">
+        <f>F144-G144</f>
+        <v>50</v>
+      </c>
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>81</v>
       </c>
@@ -5199,9 +5839,13 @@
       <c r="I145" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J145" s="3"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J145" s="3">
+        <f>F145-G145</f>
+        <v>0</v>
+      </c>
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>81</v>
       </c>
@@ -5227,9 +5871,13 @@
         <v>71</v>
       </c>
       <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J146" s="3">
+        <f>F146-G146</f>
+        <v>48</v>
+      </c>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>81</v>
       </c>
@@ -5255,9 +5903,13 @@
         <v>70</v>
       </c>
       <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J147" s="3">
+        <f>F147-G147</f>
+        <v>49</v>
+      </c>
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>81</v>
       </c>
@@ -5283,9 +5935,13 @@
         <v>58</v>
       </c>
       <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J148" s="3">
+        <f>F148-G148</f>
+        <v>63</v>
+      </c>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>81</v>
       </c>
@@ -5313,9 +5969,13 @@
       <c r="I149" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J149" s="3"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J149" s="3">
+        <f>F149-G149</f>
+        <v>0</v>
+      </c>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>81</v>
       </c>
@@ -5341,9 +6001,13 @@
         <v>74</v>
       </c>
       <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J150" s="3">
+        <f>F150-G150</f>
+        <v>47</v>
+      </c>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>81</v>
       </c>
@@ -5371,9 +6035,13 @@
       <c r="I151" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J151" s="3"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J151" s="3">
+        <f>F151-G151</f>
+        <v>0</v>
+      </c>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>81</v>
       </c>
@@ -5399,9 +6067,13 @@
         <v>68</v>
       </c>
       <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J152" s="3">
+        <f>F152-G152</f>
+        <v>48</v>
+      </c>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>81</v>
       </c>
@@ -5429,9 +6101,13 @@
       <c r="I153" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J153" s="3"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J153" s="3">
+        <f>F153-G153</f>
+        <v>0</v>
+      </c>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>81</v>
       </c>
@@ -5457,9 +6133,13 @@
         <v>69</v>
       </c>
       <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J154" s="3">
+        <f>F154-G154</f>
+        <v>44</v>
+      </c>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>81</v>
       </c>
@@ -5485,9 +6165,13 @@
         <v>56</v>
       </c>
       <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J155" s="3">
+        <f>F155-G155</f>
+        <v>46</v>
+      </c>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>81</v>
       </c>
@@ -5515,9 +6199,13 @@
       <c r="I156" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J156" s="3"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J156" s="3">
+        <f>F156-G156</f>
+        <v>0</v>
+      </c>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>81</v>
       </c>
@@ -5543,9 +6231,13 @@
         <v>64</v>
       </c>
       <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J157" s="3">
+        <f>F157-G157</f>
+        <v>50</v>
+      </c>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>81</v>
       </c>
@@ -5571,43 +6263,156 @@
         <v>70</v>
       </c>
       <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J158" s="3">
+        <f>F158-G158</f>
+        <v>50</v>
+      </c>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" s="3">
+        <f>F159-G159</f>
+        <v>0</v>
+      </c>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+      <c r="C160" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F160" s="3">
+        <v>114</v>
+      </c>
+      <c r="G160" s="3">
+        <v>63</v>
+      </c>
+      <c r="H160" s="3">
+        <v>65</v>
+      </c>
       <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="J160" s="3">
+        <f>F160-G160</f>
+        <v>51</v>
+      </c>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="170">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +686,18 @@
   </si>
   <si>
     <t>脉压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +783,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -781,31 +793,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1111,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L144" sqref="L144"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,7 +1173,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="3">
-        <f>F2-G2</f>
+        <f t="shared" ref="J2:J33" si="0">F2-G2</f>
         <v>0</v>
       </c>
       <c r="K2" s="3"/>
@@ -1218,7 +1205,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
-        <f>F3-G3</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="K3" s="3"/>
@@ -1250,7 +1237,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
-        <f>F4-G4</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="K4" s="3"/>
@@ -1282,7 +1269,7 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
-        <f>F5-G5</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="K5" s="3"/>
@@ -1316,7 +1303,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="3">
-        <f>F6-G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="3"/>
@@ -1348,7 +1335,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <f>F7-G7</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="K7" s="3"/>
@@ -1380,7 +1367,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
-        <f>F8-G8</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="K8" s="3"/>
@@ -1412,7 +1399,7 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3">
-        <f>F9-G9</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="K9" s="3"/>
@@ -1444,7 +1431,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3">
-        <f>F10-G10</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="K10" s="3"/>
@@ -1478,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="3">
-        <f>F11-G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="3"/>
@@ -1510,7 +1497,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3">
-        <f>F12-G12</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="K12" s="3"/>
@@ -1542,7 +1529,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3">
-        <f>F13-G13</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="K13" s="3"/>
@@ -1574,7 +1561,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3">
-        <f>F14-G14</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="K14" s="3"/>
@@ -1606,7 +1593,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3">
-        <f>F15-G15</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="K15" s="3"/>
@@ -1640,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="3">
-        <f>F16-G16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="3"/>
@@ -1672,7 +1659,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3">
-        <f>F17-G17</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="K17" s="3"/>
@@ -1704,7 +1691,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3">
-        <f>F18-G18</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="K18" s="3"/>
@@ -1738,7 +1725,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="3">
-        <f>F19-G19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="3"/>
@@ -1770,7 +1757,7 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
-        <f>F20-G20</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="K20" s="3"/>
@@ -1802,7 +1789,7 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3">
-        <f>F21-G21</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="K21" s="3"/>
@@ -1834,7 +1821,7 @@
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3">
-        <f>F22-G22</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="K22" s="3"/>
@@ -1866,7 +1853,7 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3">
-        <f>F23-G23</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="K23" s="3"/>
@@ -1898,7 +1885,7 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3">
-        <f>F24-G24</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="K24" s="3"/>
@@ -1932,7 +1919,7 @@
         <v>22</v>
       </c>
       <c r="J25" s="3">
-        <f>F25-G25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="3"/>
@@ -1964,7 +1951,7 @@
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
-        <f>F26-G26</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="K26" s="3"/>
@@ -1996,7 +1983,7 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
-        <f>F27-G27</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="K27" s="3"/>
@@ -2030,7 +2017,7 @@
         <v>22</v>
       </c>
       <c r="J28" s="3">
-        <f>F28-G28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="3"/>
@@ -2062,7 +2049,7 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3">
-        <f>F29-G29</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="K29" s="3"/>
@@ -2094,7 +2081,7 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3">
-        <f>F30-G30</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="K30" s="3"/>
@@ -2128,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="J31" s="3">
-        <f>F31-G31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="3"/>
@@ -2160,7 +2147,7 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3">
-        <f>F32-G32</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="K32" s="3"/>
@@ -2192,7 +2179,7 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3">
-        <f>F33-G33</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="K33" s="3"/>
@@ -2224,7 +2211,7 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3">
-        <f>F34-G34</f>
+        <f t="shared" ref="J34:J65" si="1">F34-G34</f>
         <v>52</v>
       </c>
       <c r="K34" s="3"/>
@@ -2258,7 +2245,7 @@
         <v>22</v>
       </c>
       <c r="J35" s="3">
-        <f>F35-G35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="3"/>
@@ -2290,7 +2277,7 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3">
-        <f>F36-G36</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="K36" s="3"/>
@@ -2322,7 +2309,7 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3">
-        <f>F37-G37</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="K37" s="3"/>
@@ -2354,7 +2341,7 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3">
-        <f>F38-G38</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="K38" s="3"/>
@@ -2388,7 +2375,7 @@
         <v>22</v>
       </c>
       <c r="J39" s="3">
-        <f>F39-G39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
@@ -2420,7 +2407,7 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3">
-        <f>F40-G40</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="K40" s="3"/>
@@ -2452,7 +2439,7 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3">
-        <f>F41-G41</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="K41" s="3"/>
@@ -2486,7 +2473,7 @@
         <v>22</v>
       </c>
       <c r="J42" s="3">
-        <f>F42-G42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
@@ -2518,7 +2505,7 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
-        <f>F43-G43</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K43" s="3"/>
@@ -2550,7 +2537,7 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3">
-        <f>F44-G44</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="K44" s="3"/>
@@ -2582,7 +2569,7 @@
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3">
-        <f>F45-G45</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="K45" s="3"/>
@@ -2616,7 +2603,7 @@
         <v>22</v>
       </c>
       <c r="J46" s="3">
-        <f>F46-G46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="3"/>
@@ -2648,7 +2635,7 @@
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
-        <f>F47-G47</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="K47" s="3"/>
@@ -2680,7 +2667,7 @@
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3">
-        <f>F48-G48</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="K48" s="3"/>
@@ -2712,7 +2699,7 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3">
-        <f>F49-G49</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="K49" s="3"/>
@@ -2744,7 +2731,7 @@
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3">
-        <f>F50-G50</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="K50" s="3"/>
@@ -2776,7 +2763,7 @@
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3">
-        <f>F51-G51</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="K51" s="3"/>
@@ -2808,7 +2795,7 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3">
-        <f>F52-G52</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="K52" s="3"/>
@@ -2840,7 +2827,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3">
-        <f>F53-G53</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="K53" s="3"/>
@@ -2872,7 +2859,7 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
-        <f>F54-G54</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="K54" s="3"/>
@@ -2904,7 +2891,7 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3">
-        <f>F55-G55</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="K55" s="3"/>
@@ -2938,7 +2925,7 @@
         <v>22</v>
       </c>
       <c r="J56" s="3">
-        <f>F56-G56</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K56" s="3"/>
@@ -2970,7 +2957,7 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3">
-        <f>F57-G57</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="K57" s="3"/>
@@ -3002,7 +2989,7 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3">
-        <f>F58-G58</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="K58" s="3"/>
@@ -3036,7 +3023,7 @@
         <v>22</v>
       </c>
       <c r="J59" s="3">
-        <f>F59-G59</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K59" s="3"/>
@@ -3068,7 +3055,7 @@
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3">
-        <f>F60-G60</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="K60" s="3"/>
@@ -3102,7 +3089,7 @@
         <v>22</v>
       </c>
       <c r="J61" s="3">
-        <f>F61-G61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K61" s="3"/>
@@ -3134,7 +3121,7 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
-        <f>F62-G62</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K62" s="3"/>
@@ -3168,7 +3155,7 @@
         <v>22</v>
       </c>
       <c r="J63" s="3">
-        <f>F63-G63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K63" s="3"/>
@@ -3200,7 +3187,7 @@
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3">
-        <f>F64-G64</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="K64" s="3"/>
@@ -3234,7 +3221,7 @@
         <v>19</v>
       </c>
       <c r="J65" s="3">
-        <f>F65-G65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K65" s="3"/>
@@ -3266,7 +3253,7 @@
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
-        <f>F66-G66</f>
+        <f t="shared" ref="J66:J97" si="2">F66-G66</f>
         <v>50</v>
       </c>
       <c r="K66" s="3"/>
@@ -3298,7 +3285,7 @@
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
-        <f>F67-G67</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K67" s="3"/>
@@ -3330,7 +3317,7 @@
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3">
-        <f>F68-G68</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="K68" s="3"/>
@@ -3362,7 +3349,7 @@
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
-        <f>F69-G69</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="K69" s="3"/>
@@ -3394,7 +3381,7 @@
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
-        <f>F70-G70</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="K70" s="3"/>
@@ -3428,7 +3415,7 @@
         <v>19</v>
       </c>
       <c r="J71" s="3">
-        <f>F71-G71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K71" s="3"/>
@@ -3460,7 +3447,7 @@
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3">
-        <f>F72-G72</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="K72" s="3"/>
@@ -3492,7 +3479,7 @@
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3">
-        <f>F73-G73</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="K73" s="3"/>
@@ -3524,7 +3511,7 @@
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3">
-        <f>F74-G74</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="K74" s="3"/>
@@ -3556,7 +3543,7 @@
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3">
-        <f>F75-G75</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="K75" s="3"/>
@@ -3588,7 +3575,7 @@
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3">
-        <f>F76-G76</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="K76" s="3"/>
@@ -3622,7 +3609,7 @@
         <v>19</v>
       </c>
       <c r="J77" s="3">
-        <f>F77-G77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K77" s="3"/>
@@ -3654,7 +3641,7 @@
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3">
-        <f>F78-G78</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="K78" s="3"/>
@@ -3688,7 +3675,7 @@
         <v>19</v>
       </c>
       <c r="J79" s="3">
-        <f>F79-G79</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K79" s="3"/>
@@ -3720,7 +3707,7 @@
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3">
-        <f>F80-G80</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="K80" s="3"/>
@@ -3752,7 +3739,7 @@
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3">
-        <f>F81-G81</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K81" s="3"/>
@@ -3786,7 +3773,7 @@
         <v>19</v>
       </c>
       <c r="J82" s="3">
-        <f>F82-G82</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K82" s="3"/>
@@ -3818,7 +3805,7 @@
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3">
-        <f>F83-G83</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="K83" s="3"/>
@@ -3850,7 +3837,7 @@
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3">
-        <f>F84-G84</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="K84" s="3"/>
@@ -3882,7 +3869,7 @@
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3">
-        <f>F85-G85</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="K85" s="3"/>
@@ -3916,7 +3903,7 @@
         <v>19</v>
       </c>
       <c r="J86" s="3">
-        <f>F86-G86</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K86" s="3"/>
@@ -3948,7 +3935,7 @@
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3">
-        <f>F87-G87</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="K87" s="3"/>
@@ -3982,7 +3969,7 @@
         <v>19</v>
       </c>
       <c r="J88" s="3">
-        <f>F88-G88</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K88" s="3"/>
@@ -4014,7 +4001,7 @@
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3">
-        <f>F89-G89</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K89" s="3"/>
@@ -4048,7 +4035,7 @@
         <v>19</v>
       </c>
       <c r="J90" s="3">
-        <f>F90-G90</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K90" s="3"/>
@@ -4080,7 +4067,7 @@
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3">
-        <f>F91-G91</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="K91" s="3"/>
@@ -4112,7 +4099,7 @@
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3">
-        <f>F92-G92</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="K92" s="3"/>
@@ -4146,7 +4133,7 @@
         <v>19</v>
       </c>
       <c r="J93" s="3">
-        <f>F93-G93</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K93" s="3"/>
@@ -4178,7 +4165,7 @@
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3">
-        <f>F94-G94</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="K94" s="3"/>
@@ -4210,7 +4197,7 @@
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3">
-        <f>F95-G95</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="K95" s="3"/>
@@ -4242,7 +4229,7 @@
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3">
-        <f>F96-G96</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K96" s="3"/>
@@ -4274,7 +4261,7 @@
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3">
-        <f>F97-G97</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K97" s="3"/>
@@ -4308,7 +4295,7 @@
         <v>19</v>
       </c>
       <c r="J98" s="3">
-        <f>F98-G98</f>
+        <f t="shared" ref="J98:J129" si="3">F98-G98</f>
         <v>0</v>
       </c>
       <c r="K98" s="3"/>
@@ -4340,7 +4327,7 @@
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3">
-        <f>F99-G99</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="K99" s="3"/>
@@ -4374,7 +4361,7 @@
         <v>19</v>
       </c>
       <c r="J100" s="3">
-        <f>F100-G100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K100" s="3"/>
@@ -4406,7 +4393,7 @@
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3">
-        <f>F101-G101</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="K101" s="3"/>
@@ -4438,7 +4425,7 @@
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3">
-        <f>F102-G102</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="K102" s="3"/>
@@ -4470,7 +4457,7 @@
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3">
-        <f>F103-G103</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="K103" s="3"/>
@@ -4502,7 +4489,7 @@
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3">
-        <f>F104-G104</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="K104" s="3"/>
@@ -4534,7 +4521,7 @@
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3">
-        <f>F105-G105</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="K105" s="3"/>
@@ -4568,7 +4555,7 @@
         <v>19</v>
       </c>
       <c r="J106" s="3">
-        <f>F106-G106</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K106" s="3"/>
@@ -4600,7 +4587,7 @@
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3">
-        <f>F107-G107</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="K107" s="3"/>
@@ -4632,7 +4619,7 @@
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3">
-        <f>F108-G108</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="K108" s="3"/>
@@ -4666,7 +4653,7 @@
         <v>19</v>
       </c>
       <c r="J109" s="3">
-        <f>F109-G109</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K109" s="3"/>
@@ -4700,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="J110" s="3">
-        <f>F110-G110</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K110" s="3"/>
@@ -4732,7 +4719,7 @@
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3">
-        <f>F111-G111</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="K111" s="3"/>
@@ -4764,7 +4751,7 @@
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3">
-        <f>F112-G112</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K112" s="3"/>
@@ -4796,7 +4783,7 @@
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3">
-        <f>F113-G113</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="K113" s="3"/>
@@ -4830,7 +4817,7 @@
         <v>19</v>
       </c>
       <c r="J114" s="3">
-        <f>F114-G114</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K114" s="3"/>
@@ -4862,7 +4849,7 @@
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3">
-        <f>F115-G115</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="K115" s="3"/>
@@ -4894,7 +4881,7 @@
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3">
-        <f>F116-G116</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K116" s="3"/>
@@ -4926,7 +4913,7 @@
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3">
-        <f>F117-G117</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="K117" s="3"/>
@@ -4960,7 +4947,7 @@
         <v>19</v>
       </c>
       <c r="J118" s="3">
-        <f>F118-G118</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K118" s="3"/>
@@ -4992,7 +4979,7 @@
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3">
-        <f>F119-G119</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="K119" s="3"/>
@@ -5024,7 +5011,7 @@
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3">
-        <f>F120-G120</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="K120" s="3"/>
@@ -5058,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="J121" s="3">
-        <f>F121-G121</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K121" s="3"/>
@@ -5090,7 +5077,7 @@
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3">
-        <f>F122-G122</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="K122" s="3"/>
@@ -5122,7 +5109,7 @@
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3">
-        <f>F123-G123</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="K123" s="3"/>
@@ -5154,7 +5141,7 @@
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3">
-        <f>F124-G124</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="K124" s="3"/>
@@ -5188,7 +5175,7 @@
         <v>19</v>
       </c>
       <c r="J125" s="3">
-        <f>F125-G125</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K125" s="3"/>
@@ -5220,7 +5207,7 @@
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3">
-        <f>F126-G126</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="K126" s="3"/>
@@ -5252,7 +5239,7 @@
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3">
-        <f>F127-G127</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="K127" s="3"/>
@@ -5284,7 +5271,7 @@
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3">
-        <f>F128-G128</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="K128" s="3"/>
@@ -5318,7 +5305,7 @@
         <v>19</v>
       </c>
       <c r="J129" s="3">
-        <f>F129-G129</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K129" s="3"/>
@@ -5350,7 +5337,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f>F130-G130</f>
+        <f t="shared" ref="J130:J162" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -5382,7 +5369,7 @@
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3">
-        <f>F131-G131</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="K131" s="3"/>
@@ -5414,7 +5401,7 @@
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3">
-        <f>F132-G132</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="K132" s="3"/>
@@ -5448,7 +5435,7 @@
         <v>19</v>
       </c>
       <c r="J133" s="3">
-        <f>F133-G133</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K133" s="3"/>
@@ -5480,7 +5467,7 @@
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3">
-        <f>F134-G134</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="K134" s="3"/>
@@ -5512,7 +5499,7 @@
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3">
-        <f>F135-G135</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="K135" s="3"/>
@@ -5546,7 +5533,7 @@
         <v>19</v>
       </c>
       <c r="J136" s="3">
-        <f>F136-G136</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K136" s="3"/>
@@ -5578,7 +5565,7 @@
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3">
-        <f>F137-G137</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="K137" s="3"/>
@@ -5610,7 +5597,7 @@
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3">
-        <f>F138-G138</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="K138" s="3"/>
@@ -5644,7 +5631,7 @@
         <v>19</v>
       </c>
       <c r="J139" s="3">
-        <f>F139-G139</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K139" s="3"/>
@@ -5676,7 +5663,7 @@
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3">
-        <f>F140-G140</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="K140" s="3"/>
@@ -5710,7 +5697,7 @@
         <v>19</v>
       </c>
       <c r="J141" s="3">
-        <f>F141-G141</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K141" s="3"/>
@@ -5742,7 +5729,7 @@
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3">
-        <f>F142-G142</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="K142" s="3"/>
@@ -5774,7 +5761,7 @@
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3">
-        <f>F143-G143</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="K143" s="3"/>
@@ -5806,7 +5793,7 @@
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3">
-        <f>F144-G144</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="K144" s="3"/>
@@ -5840,7 +5827,7 @@
         <v>19</v>
       </c>
       <c r="J145" s="3">
-        <f>F145-G145</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K145" s="3"/>
@@ -5872,7 +5859,7 @@
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3">
-        <f>F146-G146</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="K146" s="3"/>
@@ -5904,7 +5891,7 @@
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3">
-        <f>F147-G147</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="K147" s="3"/>
@@ -5936,7 +5923,7 @@
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3">
-        <f>F148-G148</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="K148" s="3"/>
@@ -5970,7 +5957,7 @@
         <v>19</v>
       </c>
       <c r="J149" s="3">
-        <f>F149-G149</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K149" s="3"/>
@@ -6002,7 +5989,7 @@
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3">
-        <f>F150-G150</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="K150" s="3"/>
@@ -6036,7 +6023,7 @@
         <v>19</v>
       </c>
       <c r="J151" s="3">
-        <f>F151-G151</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K151" s="3"/>
@@ -6068,7 +6055,7 @@
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3">
-        <f>F152-G152</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="K152" s="3"/>
@@ -6102,7 +6089,7 @@
         <v>19</v>
       </c>
       <c r="J153" s="3">
-        <f>F153-G153</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K153" s="3"/>
@@ -6134,7 +6121,7 @@
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3">
-        <f>F154-G154</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="K154" s="3"/>
@@ -6166,7 +6153,7 @@
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3">
-        <f>F155-G155</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="K155" s="3"/>
@@ -6200,7 +6187,7 @@
         <v>19</v>
       </c>
       <c r="J156" s="3">
-        <f>F156-G156</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K156" s="3"/>
@@ -6232,7 +6219,7 @@
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3">
-        <f>F157-G157</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="K157" s="3"/>
@@ -6264,7 +6251,7 @@
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3">
-        <f>F158-G158</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="K158" s="3"/>
@@ -6298,7 +6285,7 @@
         <v>19</v>
       </c>
       <c r="J159" s="3">
-        <f>F159-G159</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K159" s="3"/>
@@ -6330,35 +6317,75 @@
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3">
-        <f>F160-G160</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="K160" s="3"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
+      <c r="A161" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J161" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K161" s="3"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+      <c r="A162" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F162" s="3">
+        <v>115</v>
+      </c>
+      <c r="G162" s="3">
+        <v>64</v>
+      </c>
+      <c r="H162" s="3">
+        <v>64</v>
+      </c>
       <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
+      <c r="J162" s="3">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
       <c r="K162" s="3"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.15">

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="179">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,42 @@
   </si>
   <si>
     <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H162" sqref="H162"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5337,7 +5373,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J162" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J167" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -6389,43 +6425,519 @@
       <c r="K162" s="3"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+      <c r="A163" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F163" s="3">
+        <v>104</v>
+      </c>
+      <c r="G163" s="3">
+        <v>54</v>
+      </c>
+      <c r="H163" s="3">
+        <v>67</v>
+      </c>
       <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="J163" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
       <c r="K163" s="3"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="A164" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J164" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K164" s="3"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+      <c r="A165" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F165" s="3">
+        <v>113</v>
+      </c>
+      <c r="G165" s="3">
+        <v>70</v>
+      </c>
+      <c r="H165" s="3">
+        <v>71</v>
+      </c>
       <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="J165" s="3">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
       <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F167" s="3">
+        <v>118</v>
+      </c>
+      <c r="G167" s="3">
+        <v>71</v>
+      </c>
+      <c r="H167" s="3">
+        <v>68</v>
+      </c>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="185">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -734,6 +734,30 @@
   </si>
   <si>
     <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1159,7 @@
   <dimension ref="A1:K194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+      <selection activeCell="A169" sqref="A169:C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5373,7 +5397,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J167" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J169" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -6589,35 +6613,81 @@
       <c r="K167" s="3"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
+      <c r="A168" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F168" s="3">
+        <v>112</v>
+      </c>
+      <c r="G168" s="3">
+        <v>61</v>
+      </c>
+      <c r="H168" s="3">
+        <v>73</v>
+      </c>
       <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="3">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
       <c r="K168" s="3"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
+      <c r="A169" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K169" s="3"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="A170" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="189">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,6 +758,22 @@
   </si>
   <si>
     <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1175,7 @@
   <dimension ref="A1:K194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:C170"/>
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5397,7 +5413,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J169" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J171" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -6688,26 +6704,58 @@
       <c r="C170" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+      <c r="D170" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F170" s="3">
+        <v>120</v>
+      </c>
+      <c r="G170" s="3">
+        <v>67</v>
+      </c>
+      <c r="H170" s="3">
+        <v>67</v>
+      </c>
       <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
+      <c r="J170" s="3">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
       <c r="K170" s="3"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
+      <c r="A171" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F171" s="3">
+        <v>116</v>
+      </c>
+      <c r="G171" s="3">
+        <v>62</v>
+      </c>
+      <c r="H171" s="3">
+        <v>71</v>
+      </c>
       <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="J171" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="K171" s="3"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.15">

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="213">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,6 +770,102 @@
   </si>
   <si>
     <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服用降压药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1174,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187:XFD187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5413,7 +5509,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J171" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J181" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -6759,133 +6855,331 @@
       <c r="K171" s="3"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="A172" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K172" s="3"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
+      <c r="A173" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F173" s="3">
+        <v>112</v>
+      </c>
+      <c r="G173" s="3">
+        <v>69</v>
+      </c>
+      <c r="H173" s="3">
+        <v>64</v>
+      </c>
       <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="J173" s="3">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
       <c r="K173" s="3"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
+      <c r="A174" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F174" s="3">
+        <v>115</v>
+      </c>
+      <c r="G174" s="3">
+        <v>62</v>
+      </c>
+      <c r="H174" s="3">
+        <v>64</v>
+      </c>
       <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="J174" s="3">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
       <c r="K174" s="3"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
+      <c r="A175" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J175" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K175" s="3"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="A176" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F176" s="3">
+        <v>112</v>
+      </c>
+      <c r="G176" s="3">
+        <v>62</v>
+      </c>
+      <c r="H176" s="3">
+        <v>68</v>
+      </c>
       <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
+      <c r="J176" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
       <c r="K176" s="3"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
+      <c r="A177" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="3">
+        <v>0</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K177" s="3"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
+      <c r="A178" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F178" s="3">
+        <v>117</v>
+      </c>
+      <c r="G178" s="3">
+        <v>70</v>
+      </c>
+      <c r="H178" s="3">
+        <v>76</v>
+      </c>
       <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="J178" s="3">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
       <c r="K178" s="3"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
+      <c r="A179" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="3">
+        <v>0</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J179" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K179" s="3"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
+      <c r="A180" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F180" s="3">
+        <v>122</v>
+      </c>
+      <c r="G180" s="3">
+        <v>74</v>
+      </c>
+      <c r="H180" s="3">
+        <v>75</v>
+      </c>
       <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
+      <c r="J180" s="3">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
       <c r="K180" s="3"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
+      <c r="A181" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F181" s="3">
+        <v>117</v>
+      </c>
+      <c r="G181" s="3">
+        <v>69</v>
+      </c>
+      <c r="H181" s="3">
+        <v>70</v>
+      </c>
       <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="J181" s="3">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
       <c r="K181" s="3"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="216">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,6 +870,18 @@
   </si>
   <si>
     <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,6 +991,1250 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>血压记录表!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>收缩压</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>血压记录表!$G$1:$G$181</c:f>
+              <c:strCache>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>舒张压</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>血压记录表!$F$2:$F$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="82296192"/>
+        <c:axId val="107467904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82296192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107467904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107467904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82296192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:XFD187"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5509,7 +6765,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J181" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J183" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -7183,29 +8439,69 @@
       <c r="K181" s="3"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
+      <c r="A182" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K182" s="3"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
+      <c r="A183" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F183" s="3">
+        <v>116</v>
+      </c>
+      <c r="G183" s="3">
+        <v>69</v>
+      </c>
+      <c r="H183" s="3">
+        <v>69</v>
+      </c>
       <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
+      <c r="J183" s="3">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
       <c r="K183" s="3"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.15">
@@ -7373,12 +8669,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="228">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -878,6 +878,54 @@
   </si>
   <si>
     <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1008,7 +1056,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2146,11 +2193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82296192"/>
-        <c:axId val="107467904"/>
+        <c:axId val="74116480"/>
+        <c:axId val="103412864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82296192"/>
+        <c:axId val="74116480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107467904"/>
+        <c:crossAx val="103412864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2167,7 +2214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107467904"/>
+        <c:axId val="103412864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,14 +2225,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82296192"/>
+        <c:crossAx val="74116480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2524,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:K248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H183" sqref="H183"/>
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6765,7 +6811,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J183" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J189" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -8505,81 +8551,201 @@
       <c r="K183" s="3"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
+      <c r="A184" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="3">
+        <v>0</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J184" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K184" s="3"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
+      <c r="A185" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F185" s="3">
+        <v>114</v>
+      </c>
+      <c r="G185" s="3">
+        <v>68</v>
+      </c>
+      <c r="H185" s="3">
+        <v>67</v>
+      </c>
       <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
+      <c r="J185" s="3">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
       <c r="K185" s="3"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
+      <c r="A186" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K186" s="3"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
+      <c r="A187" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F187" s="3">
+        <v>114</v>
+      </c>
+      <c r="G187" s="3">
+        <v>70</v>
+      </c>
+      <c r="H187" s="3">
+        <v>67</v>
+      </c>
       <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+      <c r="J187" s="3">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
       <c r="K187" s="3"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="A188" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>0</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K188" s="3"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+      <c r="A189" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F189" s="3">
+        <v>117</v>
+      </c>
+      <c r="G189" s="3">
+        <v>70</v>
+      </c>
+      <c r="H189" s="3">
+        <v>69</v>
+      </c>
       <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
+      <c r="J189" s="3">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
       <c r="K189" s="3"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
@@ -8646,6 +8812,708 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="254">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,6 +930,110 @@
   </si>
   <si>
     <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服用降压药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服用降压药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2193,11 +2297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74116480"/>
-        <c:axId val="103412864"/>
+        <c:axId val="176086400"/>
+        <c:axId val="176510080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74116480"/>
+        <c:axId val="176086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103412864"/>
+        <c:crossAx val="176510080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +2318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103412864"/>
+        <c:axId val="176510080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74116480"/>
+        <c:crossAx val="176086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2572,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6811,7 +6915,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J189" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J202" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -8749,172 +8853,431 @@
       <c r="K189" s="3"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
+      <c r="A190" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F190" s="3">
+        <v>120</v>
+      </c>
+      <c r="G190" s="3">
+        <v>66</v>
+      </c>
+      <c r="H190" s="3">
+        <v>64</v>
+      </c>
       <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
+      <c r="J190" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="K190" s="3"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
+      <c r="A191" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="3">
+        <v>0</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K191" s="3"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
+      <c r="A192" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F192" s="3">
+        <v>118</v>
+      </c>
+      <c r="G192" s="3">
+        <v>70</v>
+      </c>
+      <c r="H192" s="3">
+        <v>65</v>
+      </c>
       <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
+      <c r="J192" s="3">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
       <c r="K192" s="3"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
+      <c r="A193" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F193" s="3">
+        <v>111</v>
+      </c>
+      <c r="G193" s="3">
+        <v>64</v>
+      </c>
+      <c r="H193" s="3">
+        <v>63</v>
+      </c>
       <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
+      <c r="J193" s="3">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
       <c r="K193" s="3"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
+      <c r="A194" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H194" s="3">
+        <v>0</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J194" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K194" s="3"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
+      <c r="A195" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="3">
+        <v>0</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K195" s="3"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
+      <c r="A196" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F196" s="3">
+        <v>116</v>
+      </c>
+      <c r="G196" s="3">
+        <v>72</v>
+      </c>
+      <c r="H196" s="3">
+        <v>68</v>
+      </c>
       <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
+      <c r="J196" s="3">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
       <c r="K196" s="3"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
+      <c r="A197" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="3">
+        <v>0</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J197" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K197" s="3"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
+      <c r="A198" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>0</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J198" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K198" s="3"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
+      <c r="A199" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F199" s="3">
+        <v>120</v>
+      </c>
+      <c r="G199" s="3">
+        <v>74</v>
+      </c>
+      <c r="H199" s="3">
+        <v>66</v>
+      </c>
       <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
+      <c r="J199" s="3">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
       <c r="K199" s="3"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
+      <c r="A200" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F200" s="3">
+        <v>116</v>
+      </c>
+      <c r="G200" s="3">
+        <v>67</v>
+      </c>
+      <c r="H200" s="3">
+        <v>63</v>
+      </c>
       <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
+      <c r="J200" s="3">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
       <c r="K200" s="3"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
+      <c r="A201" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K201" s="3"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
+      <c r="A202" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F202" s="3">
+        <v>120</v>
+      </c>
+      <c r="G202" s="3">
+        <v>73</v>
+      </c>
+      <c r="H202" s="3">
+        <v>63</v>
+      </c>
       <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
+      <c r="J202" s="3">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
       <c r="K202" s="3"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.15">

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="264">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1034,6 +1034,46 @@
   </si>
   <si>
     <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2297,11 +2337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176086400"/>
-        <c:axId val="176510080"/>
+        <c:axId val="75029888"/>
+        <c:axId val="103347328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176086400"/>
+        <c:axId val="75029888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176510080"/>
+        <c:crossAx val="103347328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +2358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176510080"/>
+        <c:axId val="103347328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176086400"/>
+        <c:crossAx val="75029888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2676,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H202" sqref="H202"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6915,7 +6955,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J202" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J208" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -9281,81 +9321,201 @@
       <c r="K202" s="3"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
+      <c r="A203" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="3">
+        <v>0</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K203" s="3"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
+      <c r="A204" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F204" s="3">
+        <v>115</v>
+      </c>
+      <c r="G204" s="3">
+        <v>73</v>
+      </c>
+      <c r="H204" s="3">
+        <v>63</v>
+      </c>
       <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
+      <c r="J204" s="3">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
       <c r="K204" s="3"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
+      <c r="A205" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J205" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K205" s="3"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
+      <c r="A206" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F206" s="3">
+        <v>113</v>
+      </c>
+      <c r="G206" s="3">
+        <v>70</v>
+      </c>
+      <c r="H206" s="3">
+        <v>58</v>
+      </c>
       <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
+      <c r="J206" s="3">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
       <c r="K206" s="3"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
+      <c r="A207" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K207" s="3"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+      <c r="A208" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F208" s="3">
+        <v>119</v>
+      </c>
+      <c r="G208" s="3">
+        <v>67</v>
+      </c>
+      <c r="H208" s="3">
+        <v>62</v>
+      </c>
       <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
+      <c r="J208" s="3">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
       <c r="K208" s="3"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="278">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1074,6 +1074,62 @@
   </si>
   <si>
     <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服用降压药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1215,12 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2337,11 +2398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75029888"/>
-        <c:axId val="103347328"/>
+        <c:axId val="94698880"/>
+        <c:axId val="124261504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75029888"/>
+        <c:axId val="94698880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103347328"/>
+        <c:crossAx val="124261504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103347328"/>
+        <c:axId val="124261504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75029888"/>
+        <c:crossAx val="94698880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2716,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J212" sqref="J212:J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6955,7 +7016,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J208" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J213" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -9519,68 +9580,167 @@
       <c r="K208" s="3"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
+      <c r="A209" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>0</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K209" s="3"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+      <c r="A210" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F210" s="3">
+        <v>125</v>
+      </c>
+      <c r="G210" s="3">
+        <v>71</v>
+      </c>
+      <c r="H210" s="3">
+        <v>64</v>
+      </c>
       <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
+      <c r="J210" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="K210" s="3"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
+      <c r="A211" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J211" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K211" s="3"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
+      <c r="A212" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F212" s="3">
+        <v>125</v>
+      </c>
+      <c r="G212" s="3">
+        <v>71</v>
+      </c>
+      <c r="H212" s="3">
+        <v>66</v>
+      </c>
       <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
+      <c r="J212" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="K212" s="3"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
+      <c r="A213" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F213" s="3">
+        <v>121</v>
+      </c>
+      <c r="G213" s="3">
+        <v>67</v>
+      </c>
+      <c r="H213" s="3">
+        <v>66</v>
+      </c>
       <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
+      <c r="J213" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="K213" s="3"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
@@ -10042,12 +10202,12 @@
   <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>

--- a/血压心率统计报表.xlsx
+++ b/血压心率统计报表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="290">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1130,6 +1130,54 @@
   </si>
   <si>
     <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1215,12 +1263,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2398,11 +2441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94698880"/>
-        <c:axId val="124261504"/>
+        <c:axId val="77196672"/>
+        <c:axId val="102831232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94698880"/>
+        <c:axId val="77196672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124261504"/>
+        <c:crossAx val="102831232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2419,7 +2462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124261504"/>
+        <c:axId val="102831232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94698880"/>
+        <c:crossAx val="77196672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2777,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J212" sqref="J212:J213"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7016,7 +7059,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J213" si="4">F130-G130</f>
+        <f t="shared" ref="J130:J218" si="4">F130-G130</f>
         <v>46</v>
       </c>
       <c r="K130" s="3"/>
@@ -9744,68 +9787,167 @@
       <c r="K213" s="3"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
+      <c r="A214" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="3">
+        <v>0</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K214" s="3"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
+      <c r="A215" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F215" s="3">
+        <v>120</v>
+      </c>
+      <c r="G215" s="3">
+        <v>64</v>
+      </c>
+      <c r="H215" s="3">
+        <v>66</v>
+      </c>
       <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
+      <c r="J215" s="3">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
       <c r="K215" s="3"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
+      <c r="A216" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F216" s="3">
+        <v>115</v>
+      </c>
+      <c r="G216" s="3">
+        <v>61</v>
+      </c>
+      <c r="H216" s="3">
+        <v>58</v>
+      </c>
       <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
+      <c r="J216" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="K216" s="3"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
+      <c r="A217" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F217" s="3">
+        <v>0</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="3">
+        <v>0</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K217" s="3"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
+      <c r="A218" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F218" s="3">
+        <v>114</v>
+      </c>
+      <c r="G218" s="3">
+        <v>68</v>
+      </c>
+      <c r="H218" s="3">
+        <v>62</v>
+      </c>
       <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
+      <c r="J218" s="3">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
       <c r="K218" s="3"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
@@ -10202,12 +10344,12 @@
   <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
